--- a/public/CHANCES.xlsx
+++ b/public/CHANCES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Design Rafaela\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE21798F-D578-43A0-9040-D6315893895E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFA0FFB-3269-4C5C-855E-D2A85D215076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="572" firstSheet="3" activeTab="3" xr2:uid="{49FA76ED-7DA5-40D6-9CD8-90D411C1AAFA}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="63">
   <si>
     <t>Próximo Jogo do Bahía contra Fluminense</t>
   </si>
@@ -201,22 +201,37 @@
     <t>Rebaixamento</t>
   </si>
   <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Fortaleza EC</t>
+  </si>
+  <si>
     <t>São Paulo</t>
   </si>
   <si>
     <t>Treze</t>
   </si>
   <si>
+    <t>Vasco da Gama</t>
+  </si>
+  <si>
     <t>Atlético GO</t>
   </si>
   <si>
     <t>Oitavas Finais</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Rating Médio do Vitória</t>
   </si>
   <si>
     <t>Rating Médio do Palmeiras</t>
+  </si>
+  <si>
+    <t>Juventude</t>
   </si>
 </sst>
 </file>
@@ -352,8 +367,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1776,10 +1791,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94F3939-87DC-44CF-A00A-991C8E67772C}">
-  <dimension ref="A1:X13"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N7"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1878,7 +1893,7 @@
       <c r="B3" s="5">
         <v>0.24172845536184959</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G3" s="13" t="s">
@@ -1897,14 +1912,14 @@
         <f>[2]Vitória!M3</f>
         <v>5</v>
       </c>
-      <c r="N3" s="17" t="s">
-        <v>52</v>
+      <c r="N3" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4">
         <v>1</v>
@@ -1933,11 +1948,11 @@
       <c r="B4" s="5">
         <v>0.2965430892763008</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>52</v>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H4" s="14">
         <v>0.34</v>
@@ -1952,11 +1967,11 @@
         <f>[2]Vitória!M4</f>
         <v>4</v>
       </c>
-      <c r="N4" s="17" t="s">
-        <v>52</v>
+      <c r="N4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P4" s="4">
         <v>3</v>
@@ -1988,8 +2003,8 @@
       <c r="B5" s="5">
         <v>0.46172845536184959</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>52</v>
+      <c r="F5" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>6</v>
@@ -2007,11 +2022,11 @@
         <f>[2]Vitória!M5</f>
         <v>3</v>
       </c>
-      <c r="N5" s="17" t="s">
-        <v>52</v>
+      <c r="N5" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="P5" s="4">
         <v>3</v>
@@ -2043,11 +2058,11 @@
       <c r="B6" s="6">
         <v>0.86956521739130432</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>52</v>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H6" s="14">
         <v>0.78923163738425406</v>
@@ -2062,8 +2077,8 @@
         <f>[2]Vitória!M6</f>
         <v>2</v>
       </c>
-      <c r="N6" s="17" t="s">
-        <v>52</v>
+      <c r="N6" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>6</v>
@@ -2084,7 +2099,7 @@
         <v>0.33</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="X6" s="12">
         <v>0.5</v>
@@ -2098,8 +2113,8 @@
       <c r="B7" s="6">
         <v>1</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>52</v>
+      <c r="F7" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>6</v>
@@ -2117,8 +2132,8 @@
         <f>[2]Vitória!M7</f>
         <v>1</v>
       </c>
-      <c r="N7" s="17" t="s">
-        <v>52</v>
+      <c r="N7" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>33</v>
@@ -2156,8 +2171,8 @@
       <c r="W8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="X8" s="4">
-        <v>5</v>
+      <c r="X8" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
@@ -2168,12 +2183,11 @@
       <c r="B9" s="15">
         <v>0.86956521739130432</v>
       </c>
-      <c r="N9" s="16"/>
       <c r="W9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="X9" s="4">
-        <v>5</v>
+      <c r="X9" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
@@ -2193,20 +2207,21 @@
       <c r="B11" s="6">
         <v>1.7391304347826086</v>
       </c>
-      <c r="X11" s="16"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="N12" s="16"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="H14" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/CHANCES.xlsx
+++ b/public/CHANCES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Design Rafaela\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFA0FFB-3269-4C5C-855E-D2A85D215076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF566A81-9AA8-4F59-9D6C-67E31D495055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="572" firstSheet="3" activeTab="3" xr2:uid="{49FA76ED-7DA5-40D6-9CD8-90D411C1AAFA}"/>
   </bookViews>
@@ -204,18 +204,12 @@
     <t>Cruzeiro</t>
   </si>
   <si>
-    <t>Fortaleza EC</t>
-  </si>
-  <si>
     <t>São Paulo</t>
   </si>
   <si>
     <t>Treze</t>
   </si>
   <si>
-    <t>Vasco da Gama</t>
-  </si>
-  <si>
     <t>Atlético GO</t>
   </si>
   <si>
@@ -232,6 +226,12 @@
   </si>
   <si>
     <t>Juventude</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Vasco</t>
   </si>
 </sst>
 </file>
@@ -367,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1793,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C94F3939-87DC-44CF-A00A-991C8E67772C}">
   <dimension ref="A1:X14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1913,7 +1913,7 @@
         <v>5</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>6</v>
@@ -1952,7 +1952,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H4" s="14">
         <v>0.34</v>
@@ -1971,7 +1971,7 @@
         <v>6</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P4" s="4">
         <v>3</v>
@@ -2004,7 +2004,7 @@
         <v>0.46172845536184959</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>6</v>
@@ -2062,7 +2062,7 @@
         <v>6</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" s="14">
         <v>0.78923163738425406</v>
@@ -2099,7 +2099,7 @@
         <v>0.33</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="X6" s="12">
         <v>0.5</v>
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>6</v>
@@ -2172,7 +2172,7 @@
         <v>45</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
@@ -2187,7 +2187,7 @@
         <v>46</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
@@ -2210,13 +2210,13 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="4"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="4"/>
     </row>

--- a/public/CHANCES.xlsx
+++ b/public/CHANCES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e778f7916e0666e/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5236D3FF-8381-43F6-B8A2-8E1F6236C9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27B3BFCE-4DB1-473A-9B9D-99F95791F724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="572" firstSheet="3" activeTab="3" xr2:uid="{49FA76ED-7DA5-40D6-9CD8-90D411C1AAFA}"/>
   </bookViews>
